--- a/Planering/MeetingsNew.xlsx
+++ b/Planering/MeetingsNew.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="23715" windowHeight="12315"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="23715" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summering" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>Vecka 1</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Åtgärd</t>
+  </si>
+  <si>
+    <t>Utgår från att alla operatörer är i Gbg samt uppdrag</t>
+  </si>
+  <si>
+    <t>Ska inte gå att dubbelboka tekniker</t>
+  </si>
+  <si>
+    <t>Företagskunder uteslutande</t>
   </si>
 </sst>
 </file>
@@ -547,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R306"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P6"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1123,9 @@
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -1136,7 +1147,9 @@
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -1158,7 +1171,9 @@
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="O14" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -6727,7 +6742,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -6755,7 +6770,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
